--- a/parse.xlsx
+++ b/parse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boros\source\repos\Csharp_vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26CBA43-68D0-4B11-B027-3C836D1C96D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25658C3-B711-4CF1-8311-46FD60763411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>.NETFramework</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Végpont elérés objektuma</t>
+  </si>
+  <si>
+    <t>BindingList&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Ajánlott lista elem</t>
+  </si>
+  <si>
+    <t>Newtonsoft.Json</t>
+  </si>
+  <si>
+    <t>System.Configuration</t>
   </si>
 </sst>
 </file>
@@ -363,15 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -400,6 +414,12 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -409,6 +429,29 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/parse.xlsx
+++ b/parse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boros\source\repos\Csharp_vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25658C3-B711-4CF1-8311-46FD60763411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44B00AC-0A02-4B5F-A39A-C144F4E61766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>.NETFramework</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>System.Configuration</t>
+  </si>
+  <si>
+    <t>Vezérlők</t>
+  </si>
+  <si>
+    <t>DateTimePicker, NumericUpDown</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>System.Text.Json</t>
+  </si>
+  <si>
+    <t>HttpClient</t>
   </si>
 </sst>
 </file>
@@ -375,17 +390,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -412,18 +428,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -452,6 +486,17 @@
       </c>
       <c r="E6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/parse.xlsx
+++ b/parse.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boros\source\repos\Csharp_vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44B00AC-0A02-4B5F-A39A-C144F4E61766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FEBDE9-24A7-4671-AE04-1E97BBCF5810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>.NETFramework</t>
   </si>
@@ -73,14 +74,757 @@
   </si>
   <si>
     <t>HttpClient</t>
+  </si>
+  <si>
+    <t>Felhasznált objektumok száma</t>
+  </si>
+  <si>
+    <t>Programok sorainak a száma</t>
+  </si>
+  <si>
+    <t>Kategória / Téma</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>.NET (Core)</t>
+  </si>
+  <si>
+    <t>Alkalmazás típus</t>
+  </si>
+  <si>
+    <t>WinForms</t>
+  </si>
+  <si>
+    <t>Futási környezet</t>
+  </si>
+  <si>
+    <t>.NET Framework 4.x (Windows)</t>
+  </si>
+  <si>
+    <t>.NET 6/7/8+ (Keresztplatformos)</t>
+  </si>
+  <si>
+    <t>Alapértelmezett: nincs</t>
+  </si>
+  <si>
+    <t>Ajánlott lista elem (DataBinding)</t>
+  </si>
+  <si>
+    <t>Ugyanaz, mint .NET Framework WPF (az Extended WPF Toolkit is támogatott).</t>
+  </si>
+  <si>
+    <t>Közelíthetetlen összehasonlítás</t>
+  </si>
+  <si>
+    <t>Magas, mert a teljes .NET Framework betöltődik.</t>
+  </si>
+  <si>
+    <t>Nagy, mert a projektfájl (csproj) bőbeszédű XML. Sok beállítás manuálisan kell.</t>
+  </si>
+  <si>
+    <t>Gyorsítás, újítások</t>
+  </si>
+  <si>
+    <t>Lassabb fejlődés, nincsenek modern optimalizációk.</t>
+  </si>
+  <si>
+    <t>Telepítés / Szerelvény neve</t>
+  </si>
+  <si>
+    <t>Összefoglalás</t>
+  </si>
+  <si>
+    <t>Stabil, érett, de régi technológia. Új projektre nem ajánlott.</t>
+  </si>
+  <si>
+    <r>
+      <t>HttpClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (javasolt: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>IHttpClientFactory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Külső: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Newtonsoft.Json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alapértelmezett: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>System.Text.Json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lehetséges: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Newtonsoft.Json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System.Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>App.config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Web.config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System.Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>App.config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Microsoft.Extensions.Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>appsettings.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, környezeti változók, stb.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BindingList&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>List&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> helyett)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ObservableCollection&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (WPF ajánlott, erősebb értesítés)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BindingList&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is működik, de nem optimális.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DateTimePicker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>NumericUpDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>DataGridView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, stb. (Gazdag, érett készlet)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nincs beépített </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>DateTimePicker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>NumericUpDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Megoldások:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Külső könyvtár (pl. Extended WPF Toolkit), Custom Control, Windows API integráció.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Magas kompatibilitás:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ugyanazok, mint .NET Framework WinForms, modernizálva.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alacsonyabb.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Csak a ténylegesen használt .NET könyvtárak kerülnek be a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>önálló üzembehelyezés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> esetén. A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keretrendszer-függő</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> üzemmód hasonló lehet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alacsonyabb.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Csak a ténylegesen használt .NET könyvtárak kerülnek be a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>önálló üzembehelyezés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> esetén.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lényegesen kevesebb.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Az SDK-stílusú projektfájl tömör, kevesebb sor. Csak a lényeg kerül bele.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lényegesen kevesebb.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Az SDK-stílusú projektfájl tömör, kevesebb sor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Magasabb teljesítmény:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JIT optimalizációk, több szál párhuzamosítása (pl. GC).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Magasabb teljesítmény:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Jobb renderelés (pl. DirectX 11/12), modern futási idő.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nincs szabvány, általában a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Company.Product.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formátum.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tisztaabb struktúra:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Company.Product.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, és </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Company.Product.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a fő logikához.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WinForms modernizálva:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Keresztplatformos lehetőség, jobb teljesítmény, modern fejlesztési élmény. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Új projektekre ajánlott, ha WinForms.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WPF modernizálva:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Keresztplatformos lehetőség, jobb teljesítmény, modern fejlesztési élmény. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Új projektekre ajánlott, ha WPF.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,8 +852,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -390,29 +1167,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -426,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -443,7 +1222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -460,7 +1239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -471,7 +1250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -488,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -499,7 +1278,322 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29225CFB-C3F2-4082-8BF8-78BA76EB0982}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="43.2">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="55.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="55.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="140.4">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="98.4">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="84">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="201.6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="187.2" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="115.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="172.8">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="158.4">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="153.6">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="288">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>